--- a/artfynd/A 31366-2021.xlsx
+++ b/artfynd/A 31366-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY15"/>
+  <dimension ref="A1:AY18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2246,6 +2246,350 @@
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>111939897</v>
+      </c>
+      <c r="B16" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Upplands-Bro, Upl</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>653206.1436768087</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6599943.901748355</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Upplands-Bro</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Bro</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-05-22</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-05-24</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Amanda Johansson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Amanda Johansson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>111939910</v>
+      </c>
+      <c r="B17" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Upplands-Bro, Upl</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>653148.2100556968</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6600341.426020051</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Upplands-Bro</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Bro</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-05-22</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-05-24</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Amanda Johansson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Amanda Johansson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>111939888</v>
+      </c>
+      <c r="B18" t="n">
+        <v>81574</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>750</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Klotsporig murkla</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Gyromitra sphaerospora</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Peck) Sacc.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Upplands-Bro, Upl</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>653207.3478315491</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6600026.776672561</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Upplands-Bro</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Bro</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-05-22</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-05-24</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Amanda Johansson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Amanda Johansson</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 31366-2021.xlsx
+++ b/artfynd/A 31366-2021.xlsx
@@ -2360,10 +2360,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111939910</v>
+        <v>111939888</v>
       </c>
       <c r="B17" t="n">
-        <v>56414</v>
+        <v>81574</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2372,46 +2372,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>750</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Klotsporig murkla</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Gyromitra sphaerospora</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Peck) Sacc.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Upplands-Bro, Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>653148.2100556968</v>
+        <v>653207.3478315491</v>
       </c>
       <c r="R17" t="n">
-        <v>6600341.426020051</v>
+        <v>6600026.776672561</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2480,10 +2472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111939888</v>
+        <v>111939910</v>
       </c>
       <c r="B18" t="n">
-        <v>81574</v>
+        <v>56414</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2492,38 +2484,46 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>750</v>
+        <v>100049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Klotsporig murkla</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Gyromitra sphaerospora</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Peck) Sacc.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Upplands-Bro, Upl</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>653207.3478315491</v>
+        <v>653148.2100556968</v>
       </c>
       <c r="R18" t="n">
-        <v>6600026.776672561</v>
+        <v>6600341.426020051</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>

--- a/artfynd/A 31366-2021.xlsx
+++ b/artfynd/A 31366-2021.xlsx
@@ -2360,10 +2360,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111939888</v>
+        <v>111939910</v>
       </c>
       <c r="B17" t="n">
-        <v>81574</v>
+        <v>56414</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2372,38 +2372,46 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>750</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Klotsporig murkla</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Gyromitra sphaerospora</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Peck) Sacc.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Upplands-Bro, Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>653207.3478315491</v>
+        <v>653148.2100556968</v>
       </c>
       <c r="R17" t="n">
-        <v>6600026.776672561</v>
+        <v>6600341.426020051</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2472,10 +2480,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111939910</v>
+        <v>111939888</v>
       </c>
       <c r="B18" t="n">
-        <v>56414</v>
+        <v>81574</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2484,46 +2492,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100049</v>
+        <v>750</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Klotsporig murkla</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Gyromitra sphaerospora</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Peck) Sacc.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Upplands-Bro, Upl</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>653148.2100556968</v>
+        <v>653207.3478315491</v>
       </c>
       <c r="R18" t="n">
-        <v>6600341.426020051</v>
+        <v>6600026.776672561</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>

--- a/artfynd/A 31366-2021.xlsx
+++ b/artfynd/A 31366-2021.xlsx
@@ -2248,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111939897</v>
+        <v>111939888</v>
       </c>
       <c r="B16" t="n">
-        <v>98535</v>
+        <v>81574</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2260,25 +2260,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>222498</v>
+        <v>750</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Klotsporig murkla</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Gyromitra sphaerospora</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Peck) Sacc.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>653206.1436768087</v>
+        <v>653207.3478315491</v>
       </c>
       <c r="R16" t="n">
-        <v>6599943.901748355</v>
+        <v>6600026.776672561</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2480,10 +2480,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111939888</v>
+        <v>111939897</v>
       </c>
       <c r="B18" t="n">
-        <v>81574</v>
+        <v>98535</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2492,25 +2492,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>750</v>
+        <v>222498</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Klotsporig murkla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Gyromitra sphaerospora</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Peck) Sacc.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2520,10 +2520,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>653207.3478315491</v>
+        <v>653206.1436768087</v>
       </c>
       <c r="R18" t="n">
-        <v>6600026.776672561</v>
+        <v>6599943.901748355</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>

--- a/artfynd/A 31366-2021.xlsx
+++ b/artfynd/A 31366-2021.xlsx
@@ -2360,10 +2360,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111939910</v>
+        <v>111939897</v>
       </c>
       <c r="B17" t="n">
-        <v>56414</v>
+        <v>98535</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2372,46 +2372,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>222498</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Upplands-Bro, Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>653148.2100556968</v>
+        <v>653206.1436768087</v>
       </c>
       <c r="R17" t="n">
-        <v>6600341.426020051</v>
+        <v>6599943.901748355</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2480,10 +2472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111939897</v>
+        <v>111939910</v>
       </c>
       <c r="B18" t="n">
-        <v>98535</v>
+        <v>56414</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2492,38 +2484,46 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>222498</v>
+        <v>100049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Upplands-Bro, Upl</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>653206.1436768087</v>
+        <v>653148.2100556968</v>
       </c>
       <c r="R18" t="n">
-        <v>6599943.901748355</v>
+        <v>6600341.426020051</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>

--- a/artfynd/A 31366-2021.xlsx
+++ b/artfynd/A 31366-2021.xlsx
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>653207.3478315491</v>
+        <v>653207</v>
       </c>
       <c r="R16" t="n">
-        <v>6600026.776672561</v>
+        <v>6600027</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2321,19 +2321,9 @@
           <t>2023-05-22</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-05-24</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2360,10 +2350,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111939897</v>
+        <v>111939910</v>
       </c>
       <c r="B17" t="n">
-        <v>98535</v>
+        <v>56414</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2372,38 +2362,46 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>222498</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Upplands-Bro, Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>653206.1436768087</v>
+        <v>653148</v>
       </c>
       <c r="R17" t="n">
-        <v>6599943.901748355</v>
+        <v>6600341</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2433,19 +2431,9 @@
           <t>2023-05-22</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-05-24</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2472,10 +2460,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111939910</v>
+        <v>111939897</v>
       </c>
       <c r="B18" t="n">
-        <v>56414</v>
+        <v>98535</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2484,46 +2472,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100049</v>
+        <v>222498</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Upplands-Bro, Upl</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>653148.2100556968</v>
+        <v>653206</v>
       </c>
       <c r="R18" t="n">
-        <v>6600341.426020051</v>
+        <v>6599944</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2553,19 +2533,9 @@
           <t>2023-05-22</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-05-24</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">

--- a/artfynd/A 31366-2021.xlsx
+++ b/artfynd/A 31366-2021.xlsx
@@ -2251,7 +2251,7 @@
         <v>111939888</v>
       </c>
       <c r="B16" t="n">
-        <v>81574</v>
+        <v>81697</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2350,10 +2350,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111939910</v>
+        <v>111939897</v>
       </c>
       <c r="B17" t="n">
-        <v>56414</v>
+        <v>98961</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2362,46 +2362,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>222498</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Upplands-Bro, Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>653148</v>
+        <v>653206</v>
       </c>
       <c r="R17" t="n">
-        <v>6600341</v>
+        <v>6599944</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2460,10 +2452,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111939897</v>
+        <v>111939910</v>
       </c>
       <c r="B18" t="n">
-        <v>98535</v>
+        <v>56446</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2472,38 +2464,46 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>222498</v>
+        <v>100049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Upplands-Bro, Upl</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>653206</v>
+        <v>653148</v>
       </c>
       <c r="R18" t="n">
-        <v>6599944</v>
+        <v>6600341</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>

--- a/artfynd/A 31366-2021.xlsx
+++ b/artfynd/A 31366-2021.xlsx
@@ -2248,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111939888</v>
+        <v>111939897</v>
       </c>
       <c r="B16" t="n">
-        <v>81697</v>
+        <v>98980</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2260,25 +2260,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>750</v>
+        <v>222498</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Klotsporig murkla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Gyromitra sphaerospora</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Peck) Sacc.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>653207</v>
+        <v>653206</v>
       </c>
       <c r="R16" t="n">
-        <v>6600027</v>
+        <v>6599944</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2350,10 +2350,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111939897</v>
+        <v>111939888</v>
       </c>
       <c r="B17" t="n">
-        <v>98961</v>
+        <v>81711</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2362,25 +2362,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>222498</v>
+        <v>750</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Klotsporig murkla</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Gyromitra sphaerospora</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Peck) Sacc.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2390,10 +2390,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>653206</v>
+        <v>653207</v>
       </c>
       <c r="R17" t="n">
-        <v>6599944</v>
+        <v>6600027</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>

--- a/artfynd/A 31366-2021.xlsx
+++ b/artfynd/A 31366-2021.xlsx
@@ -2248,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111939897</v>
+        <v>111939888</v>
       </c>
       <c r="B16" t="n">
-        <v>98980</v>
+        <v>81711</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2260,25 +2260,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>222498</v>
+        <v>750</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Klotsporig murkla</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Gyromitra sphaerospora</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Peck) Sacc.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>653206</v>
+        <v>653207</v>
       </c>
       <c r="R16" t="n">
-        <v>6599944</v>
+        <v>6600027</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2350,10 +2350,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111939888</v>
+        <v>111939910</v>
       </c>
       <c r="B17" t="n">
-        <v>81711</v>
+        <v>56446</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2362,38 +2362,46 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>750</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Klotsporig murkla</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Gyromitra sphaerospora</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Peck) Sacc.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Upplands-Bro, Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>653207</v>
+        <v>653148</v>
       </c>
       <c r="R17" t="n">
-        <v>6600027</v>
+        <v>6600341</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2452,10 +2460,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111939910</v>
+        <v>111939897</v>
       </c>
       <c r="B18" t="n">
-        <v>56446</v>
+        <v>98980</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2464,46 +2472,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100049</v>
+        <v>222498</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Upplands-Bro, Upl</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>653148</v>
+        <v>653206</v>
       </c>
       <c r="R18" t="n">
-        <v>6600341</v>
+        <v>6599944</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
